--- a/data/ResultTest/Result_testcase_create Account.xlsx
+++ b/data/ResultTest/Result_testcase_create Account.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kiemchungphanmem\code selenium\Testcase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\phatrienphanmem\Testcase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FEBB94D-8CEF-4F13-9BAA-023FE832DBD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD259787-A901-419F-A74B-8DD57646D7F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="55">
   <si>
     <t>ID</t>
   </si>
@@ -93,9 +93,6 @@
   </si>
   <si>
     <t>Đăng kí không thành công | Đăng ký với mật khẩu rỗng</t>
-  </si>
-  <si>
-    <t>Đăng kí không thành công | Đăng ký với mật khẩu có ký tự đặt biệt</t>
   </si>
   <si>
     <t>Đăng kí không thành công | Đăng ký với mật khẩu nhỏ hơn 7 ký tự</t>
@@ -181,27 +178,168 @@
   </si>
   <si>
     <t>1 equal link http://localhost/supermarketv3/Register.aspx?AspxAutoDetectCookieSupport=1
-2 not-empty id UserName</t>
+2 visible id CompareValidatorPassword</t>
   </si>
   <si>
     <t>1 equal link http://localhost/supermarketv3/Register.aspx?AspxAutoDetectCookieSupport=1
-2 not-empty id Email</t>
+2 empty id Email</t>
   </si>
   <si>
     <t>1 equal link http://localhost/supermarketv3/Register.aspx?AspxAutoDetectCookieSupport=1
-2 not-empty id Password</t>
+2 empty id UserName</t>
   </si>
   <si>
     <t>1 equal link http://localhost/supermarketv3/Register.aspx?AspxAutoDetectCookieSupport=1
-2 not-empty id ConfirmPassword</t>
+2 empty id Password</t>
   </si>
   <si>
     <t>1 equal link http://localhost/supermarketv3/Register.aspx?AspxAutoDetectCookieSupport=1
-2 visible id CompareValidatorPassword</t>
+2 empty id ConfirmPassword</t>
   </si>
   <si>
     <t>1 equal link http://localhost/supermarketv3/Register.aspx?AspxAutoDetectCookieSupport=1
-2 not-empty id Answer</t>
+2 empty id Answer</t>
+  </si>
+  <si>
+    <r>
+      <t>Đăng kí thành công | Đăng ký v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ớ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ậ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t kh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ẩ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>u có ký t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ự</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ặ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t bi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 equal link http://localhost/supermarketv3/Register.aspx?AspxAutoDetectCookieSupport=1
+2 not-exist id FullName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 equal link http://localhost/supermarketv3/Register.aspx?AspxAutoDetectCookieSupport=1
+2 not-empty class text-danger</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 equal link http://localhost/supermarketv3/Register.aspx?AspxAutoDetectCookieSupport=1
+2 not-empty class Email</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>same with ExpectedResult</t>
@@ -213,18 +351,14 @@
     <t>Thinh</t>
   </si>
   <si>
-    <t xml:space="preserve">Not EXIST CLASS: text-danger
+    <t xml:space="preserve">Not EXIST CLASS: Email
 </t>
   </si>
   <si>
     <t>Fail</t>
   </si>
   <si>
-    <t xml:space="preserve">VALUE OF ID EMPTY: 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALUE OF CLASS EMPTY: 
+    <t xml:space="preserve">EXIST ID: FullName
 </t>
   </si>
 </sst>
@@ -233,37 +367,51 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -495,7 +643,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -508,31 +656,31 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
     <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
     <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
     <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
     <xf numFmtId="0" fontId="28" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -819,19 +967,19 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.77734375" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="67.88671875" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="62.88671875" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="93.109375" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="13.6640625" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="37.6640625" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="13.75" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="67.875" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="62.875" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="93.125" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="13.625" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="37.625" collapsed="false"/>
     <col min="8" max="8" customWidth="true" width="39.0" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="14.33203125" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="14.375" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -874,7 +1022,7 @@
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
     </row>
-    <row r="2" spans="1:25" s="4" customFormat="1" ht="173.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:25" s="4" customFormat="1" ht="173.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -882,25 +1030,25 @@
         <v>8</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F2" t="s" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H2" s="5" t="n">
-        <v>44083.03282417824</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" s="4" customFormat="1" ht="173.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>44083.62254344908</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" s="4" customFormat="1" ht="173.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -911,22 +1059,22 @@
         <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F3" t="s" s="11">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H3" s="5" t="n">
-        <v>44083.03282418982</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" s="4" customFormat="1" ht="158.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>44083.62254344908</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" s="4" customFormat="1" ht="158.44999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -934,10 +1082,10 @@
         <v>13</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
         <v>49</v>
@@ -946,13 +1094,13 @@
         <v>50</v>
       </c>
       <c r="G4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>44083.03282421296</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" s="4" customFormat="1" ht="166.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>44083.622543460646</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" s="4" customFormat="1" ht="166.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -960,10 +1108,10 @@
         <v>14</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
         <v>49</v>
@@ -972,13 +1120,13 @@
         <v>50</v>
       </c>
       <c r="G5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>44083.03282425926</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" s="4" customFormat="1" ht="166.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>44083.622543460646</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" s="4" customFormat="1" ht="166.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -986,25 +1134,25 @@
         <v>12</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F6" t="s" s="14">
         <v>50</v>
       </c>
       <c r="G6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>44083.03282429398</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" s="4" customFormat="1" ht="111.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>44083.62254347222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" s="4" customFormat="1" ht="111.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -1012,25 +1160,25 @@
         <v>11</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F7" t="s" s="15">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>44083.032824305556</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" s="4" customFormat="1" ht="111.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>44083.62254347222</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" s="4" customFormat="1" ht="111.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -1038,25 +1186,25 @@
         <v>15</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="E8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F8" t="s" s="16">
         <v>50</v>
       </c>
       <c r="G8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>44083.0328243287</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" s="6" customFormat="1" ht="117" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>44083.62254347222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" s="6" customFormat="1" ht="117" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -1064,22 +1212,22 @@
         <v>16</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F9" s="17" t="s">
         <v>50</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>44083.03282435185</v>
+        <v>44083.6225434838</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -1092,7 +1240,7 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
     </row>
-    <row r="10" spans="1:25" s="6" customFormat="1" ht="132" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:25" s="6" customFormat="1" ht="132" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="9">
         <v>9</v>
       </c>
@@ -1100,10 +1248,10 @@
         <v>17</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>49</v>
@@ -1112,10 +1260,10 @@
         <v>50</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>44083.032824375</v>
+        <v>44083.6225434838</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -1128,7 +1276,7 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
     </row>
-    <row r="11" spans="1:25" s="6" customFormat="1" ht="186" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:25" s="6" customFormat="1" ht="186" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="9">
         <v>10</v>
       </c>
@@ -1136,22 +1284,22 @@
         <v>18</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>44083.032824421294</v>
+        <v>44083.6225434838</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -1164,7 +1312,7 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
     </row>
-    <row r="12" spans="1:25" s="6" customFormat="1" ht="162" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:25" s="6" customFormat="1" ht="162" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="9">
         <v>11</v>
       </c>
@@ -1172,22 +1320,22 @@
         <v>19</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>42</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F12" s="20" t="s">
         <v>50</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>44083.032824444446</v>
+        <v>44083.622543495374</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -1200,30 +1348,30 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
     </row>
-    <row r="13" spans="1:25" s="6" customFormat="1" ht="192" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:25" s="6" customFormat="1" ht="192" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="9">
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>44083.03282447917</v>
+        <v>44083.62254354166</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -1236,30 +1384,30 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
     </row>
-    <row r="14" spans="1:25" s="6" customFormat="1" ht="170.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:25" s="6" customFormat="1" ht="170.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="9">
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>44083.03282449074</v>
+        <v>44083.62254355324</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -1272,30 +1420,30 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
     </row>
-    <row r="15" spans="1:25" s="6" customFormat="1" ht="99" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:25" s="6" customFormat="1" ht="99" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="9">
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>44083.03282450231</v>
+        <v>44083.62254355324</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -1308,160 +1456,160 @@
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
     </row>
-    <row r="16" spans="1:25" s="4" customFormat="1" ht="111.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:25" s="4" customFormat="1" ht="111.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="9">
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E16" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F16" t="s" s="24">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G16" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>44083.03282451389</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" s="4" customFormat="1" ht="111.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>44083.62254355324</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" s="4" customFormat="1" ht="111.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="9">
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>43</v>
       </c>
       <c r="E17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F17" t="s" s="25">
         <v>50</v>
       </c>
       <c r="G17" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>44083.032824525464</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" s="4" customFormat="1" ht="111.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>44083.622543564816</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" s="4" customFormat="1" ht="111.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="9">
         <v>17</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E18" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="F18" t="s" s="26">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G18" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>44083.032824525464</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" s="4" customFormat="1" ht="111.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>44083.622543564816</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" s="4" customFormat="1" ht="111.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="9">
         <v>18</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E19" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F19" t="s" s="27">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G19" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>44083.03282453704</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" s="4" customFormat="1" ht="111.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>44083.622543564816</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" s="4" customFormat="1" ht="111.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="9">
         <v>19</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E20" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="F20" t="s" s="28">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G20" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>44083.03282454861</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" s="6" customFormat="1" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
+        <v>44083.622543564816</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" s="6" customFormat="1" ht="188.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="9">
         <v>20</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F21" s="29" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>44083.03282454861</v>
+        <v>44083.62254357639</v>
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
@@ -1474,30 +1622,30 @@
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
     </row>
-    <row r="22" spans="1:18" s="6" customFormat="1" ht="147" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:18" s="6" customFormat="1" ht="147" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="9">
         <v>21</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F22" s="30" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>44083.032824560185</v>
+        <v>44083.62254357639</v>
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
@@ -1510,44 +1658,44 @@
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
     </row>
-    <row r="23" spans="1:18" s="6" customFormat="1" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:18" s="6" customFormat="1" ht="188.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="9">
         <v>22</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F23" s="31" t="s">
         <v>50</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H23" s="4" t="n">
-        <v>44083.03282457176</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" s="6" customFormat="1" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
+        <v>44083.62254357639</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" s="6" customFormat="1" ht="188.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="9">
         <v>23</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>49</v>
@@ -1556,129 +1704,129 @@
         <v>50</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H24" s="4" t="n">
-        <v>44083.03282458333</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" s="6" customFormat="1" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+        <v>44083.62254358796</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" s="6" customFormat="1" ht="169.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="9">
         <v>24</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F25" s="33" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H25" s="4" t="n">
-        <v>44083.032824594906</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" s="6" customFormat="1" ht="163.19999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>44083.62254358796</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" s="6" customFormat="1" ht="163.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="9">
         <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="F26" s="34" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H26" s="4" t="n">
-        <v>44083.032824594906</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="33" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="34" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="35" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="36" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="37" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="38" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="39" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="40" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="41" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="42" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="43" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="44" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="45" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="46" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="47" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="48" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="49" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="50" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="51" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="52" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="53" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="54" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="55" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="56" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="57" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="58" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="59" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="60" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="61" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="62" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="63" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="64" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="65" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="66" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="67" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="68" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="69" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="70" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="71" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="72" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="73" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="74" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="75" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="76" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="77" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="78" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="79" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="80" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="81" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="82" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="83" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="84" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="85" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="86" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="87" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="88" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="89" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="90" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="91" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+        <v>44083.62254358796</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="29" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="30" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="32" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="33" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="34" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="35" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="36" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="37" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="38" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="39" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="40" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="41" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="42" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="43" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="44" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="45" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="46" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="47" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="48" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="49" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="50" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="51" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="52" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="53" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="54" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="55" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="56" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="57" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="58" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="59" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="60" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="61" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="62" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="63" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="64" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="65" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="66" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="67" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="68" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="69" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="70" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="71" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="72" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="73" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="74" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="75" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="76" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="77" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="78" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="79" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="80" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="81" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="82" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="83" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="84" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="85" s="3" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="86" s="3" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="87" s="3" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="88" s="3" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="89" s="3" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="90" s="3" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="91" s="3" customFormat="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
